--- a/data/trans_dic/MCS12_SP_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R3-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,63; 21,42</t>
+          <t>14,06; 21,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,24; 20,29</t>
+          <t>13,14; 20,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,92; 21,51</t>
+          <t>13,77; 21,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,82; 22,37</t>
+          <t>14,98; 21,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,72; 27,36</t>
+          <t>17,9; 27,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,05; 28,18</t>
+          <t>18,09; 28,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,36; 22,57</t>
+          <t>13,92; 22,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,64; 26,46</t>
+          <t>19,97; 26,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,44; 22,14</t>
+          <t>16,83; 22,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,29; 22,51</t>
+          <t>15,85; 22,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,19; 20,61</t>
+          <t>15,36; 20,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,26; 23,09</t>
+          <t>18,24; 22,88</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,1; 18,56</t>
+          <t>11,0; 18,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,53; 25,29</t>
+          <t>16,44; 25,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,04; 21,24</t>
+          <t>13,16; 21,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,02; 20,09</t>
+          <t>12,71; 19,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,29; 30,23</t>
+          <t>21,64; 30,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,4; 38,51</t>
+          <t>27,03; 38,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,01; 29,24</t>
+          <t>20,27; 28,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,72; 28,88</t>
+          <t>20,98; 28,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,23; 23,25</t>
+          <t>17,4; 23,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,74; 29,53</t>
+          <t>22,66; 29,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,55; 23,66</t>
+          <t>17,71; 23,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,51; 22,74</t>
+          <t>17,64; 22,88</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,08; 21,6</t>
+          <t>15,1; 21,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,09; 29,42</t>
+          <t>21,98; 29,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,31; 25,35</t>
+          <t>17,83; 25,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,3; 24,66</t>
+          <t>4,76; 24,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,49; 32,82</t>
+          <t>17,65; 31,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,86; 41,27</t>
+          <t>28,74; 41,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,31; 38,64</t>
+          <t>24,16; 38,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,8; 31,38</t>
+          <t>21,17; 31,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,66; 22,73</t>
+          <t>17,01; 22,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,16; 31,5</t>
+          <t>25,22; 31,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,27; 27,06</t>
+          <t>20,37; 27,11</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,77; 25,09</t>
+          <t>7,42; 25,2</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,66; 24,24</t>
+          <t>19,69; 24,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,72; 27,19</t>
+          <t>21,75; 27,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,82; 22,49</t>
+          <t>17,64; 22,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,62; 24,12</t>
+          <t>18,74; 24,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,26; 30,5</t>
+          <t>23,18; 29,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,57; 33,33</t>
+          <t>26,89; 33,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,32; 29,53</t>
+          <t>23,39; 29,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,16; 70,63</t>
+          <t>24,03; 68,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,64; 25,54</t>
+          <t>21,69; 25,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,5; 28,85</t>
+          <t>24,59; 28,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,92; 24,56</t>
+          <t>20,8; 24,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,9; 51,38</t>
+          <t>21,93; 51,56</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,1; 24,24</t>
+          <t>15,52; 24,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,39; 26,92</t>
+          <t>19,08; 26,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,6; 23,92</t>
+          <t>17,33; 24,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,06; 27,1</t>
+          <t>19,42; 27,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,19; 33,34</t>
+          <t>25,76; 33,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>35,43; 42,73</t>
+          <t>35,27; 42,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,35; 38,7</t>
+          <t>31,39; 38,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,1; 32,96</t>
+          <t>21,27; 32,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,81; 28,7</t>
+          <t>22,67; 28,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,13; 35,26</t>
+          <t>30,1; 35,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25,9; 30,83</t>
+          <t>25,8; 31,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>22,34; 29,6</t>
+          <t>22,03; 29,81</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,51; 16,38</t>
+          <t>8,49; 16,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,42; 20,03</t>
+          <t>11,22; 19,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,71; 15,04</t>
+          <t>7,7; 14,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,62; 16,13</t>
+          <t>5,36; 15,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,27; 29,28</t>
+          <t>24,2; 29,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,86; 35,44</t>
+          <t>29,55; 35,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,69; 27,21</t>
+          <t>21,98; 27,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>26,0; 31,95</t>
+          <t>26,0; 32,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,63; 25,86</t>
+          <t>21,37; 25,92</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,79; 31,7</t>
+          <t>26,69; 31,77</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>19,39; 23,82</t>
+          <t>19,24; 23,96</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,62; 27,12</t>
+          <t>21,34; 26,8</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,38; 20,05</t>
+          <t>17,35; 20,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,87; 23,84</t>
+          <t>20,78; 23,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,57; 20,24</t>
+          <t>17,51; 20,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,46; 20,25</t>
+          <t>14,13; 20,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,05; 27,97</t>
+          <t>25,01; 27,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,16; 34,3</t>
+          <t>31,14; 34,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,22; 28,38</t>
+          <t>25,29; 28,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,96; 46,2</t>
+          <t>25,94; 45,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,68; 23,71</t>
+          <t>21,71; 23,63</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>26,42; 28,67</t>
+          <t>26,41; 28,7</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>21,93; 24,06</t>
+          <t>21,81; 23,91</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>21,57; 32,5</t>
+          <t>21,7; 33,97</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>82584</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>72385</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>75138</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>91982</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>68538</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>71375</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>63161</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>102821</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>151122</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>143759</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>138299</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>194803</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>66624; 102025</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>57443; 90671</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>59089; 91737</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>75364; 110333</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>54893; 82814</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>56891; 88762</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>48304; 78140</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>89105; 118572</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>131323; 174775</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>119157; 165834</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>119229; 161911</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>173146; 217227</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>53810</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>86411</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>63620</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>73026</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>96642</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>110312</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>90582</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>93718</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>150451</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>196723</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>154202</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>166744</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>40362; 67583</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>68860; 105418</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>49637; 80197</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>57363; 89672</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>80489; 114625</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>91367; 129685</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>75474; 107360</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>80138; 108964</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>128541; 173444</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>171491; 224825</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>132747; 177039</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>147009; 190728</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>98200</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>161486</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>112366</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>98869</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>42433</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>89825</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>51637</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>42929</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>140634</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>251311</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>164002</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>141797</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>81901; 117247</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>138363; 186549</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>93055; 132866</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>31680; 162054</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>29605; 52986</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>74750; 106812</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>40140; 63967</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>35130; 52503</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>120818; 162672</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>224362; 280523</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>140141; 186529</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>61709; 209467</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>270600</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>282695</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>228381</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>217516</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>190095</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>230186</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>218951</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>395903</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>460695</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>512882</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>447333</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>613419</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>243811; 303669</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>252050; 313792</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>202789; 257685</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>192981; 250327</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>165556; 212575</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>206174; 256760</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>193148; 247110</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>234501; 670320</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>423515; 500432</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>473557; 557781</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>410893; 489099</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>439904; 1034045</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>69030</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>117498</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>128514</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>107481</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>166442</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>297895</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>258090</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>241294</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>235472</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>415393</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>386603</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>348775</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>54391; 86952</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>97417; 137094</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>107575; 148954</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>91369; 128925</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>146527; 188214</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>268625; 323101</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>231766; 283962</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>177947; 275442</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>208435; 261386</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>382876; 452027</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>350571; 422249</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>287922; 389709</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>35201</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>41093</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>31159</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>22696</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>331914</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>361106</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>264230</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>217472</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>367115</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>402199</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>295388</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>240168</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>25310; 48298</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>29957; 53059</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>22110; 42474</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>12879; 37325</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>302251; 364748</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>327835; 393789</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>237880; 296813</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>195687; 241393</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>330510; 400918</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>367354; 437190</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>263453; 327996</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>211913; 266187</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>709</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1070</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>877</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1529</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1461</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1489</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2259</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>609425</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>761568</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>639177</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>611570</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>896064</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1160699</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>946650</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1094137</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1505489</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1922267</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1585827</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1705706</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>567263; 655230</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>711116; 810739</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>592936; 685461</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>475002; 676807</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>844937; 945556</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1105364; 1217453</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>893170; 1002309</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>923410; 1625031</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1443364; 1570842</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1841462; 2000922</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1508770; 1653982</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1501321; 2350405</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/MCS12_SP_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R3-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
